--- a/pm2824_hw3/Tabular Column and Chart HW.xlsx
+++ b/pm2824_hw3/Tabular Column and Chart HW.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Palash/Desktop/New/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Palash/Downloads/ParallelComputing/pm2824_hw3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0427388980793771"/>
+          <c:y val="0.121892012072989"/>
+          <c:w val="0.957261101920623"/>
+          <c:h val="0.806995092888821"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -254,10 +264,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>625.0</c:v>
                 </c:pt>
@@ -275,33 +285,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>250000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.39077504476E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.75111897786E-5</c:v>
+                  <c:v>6.00020090739E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.33806101481E-5</c:v>
+                  <c:v>0.000365336736043</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0.000426371892293</c:v>
+                  <c:v>0.00307774543762</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>0.00569939613342</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.00396505991618</c:v>
+                  <c:v>0.0431826909383</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.338936964671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -401,10 +417,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>625.0</c:v>
                 </c:pt>
@@ -422,33 +438,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>250000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:f>Sheet1!$B$3:$H$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>0.000112295150757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000115553538005</c:v>
+                  <c:v>6.46909077962E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00014599164327</c:v>
+                  <c:v>6.43730163574E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000111977259318</c:v>
+                  <c:v>6.16709391276E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00015656153361</c:v>
+                  <c:v>6.93003336589E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000130414962769</c:v>
+                  <c:v>7.60555267334E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.00291697184E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -548,10 +570,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>625.0</c:v>
                 </c:pt>
@@ -569,33 +591,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>250000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:f>Sheet1!$B$4:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>0.000108321507772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000105301539103</c:v>
+                  <c:v>6.13530476888E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000139315923055</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000108003616333</c:v>
+                  <c:v>6.12735748291E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.000116348266602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0001380443573</c:v>
+                  <c:v>6.103515625E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000108003616333</c:v>
+                  <c:v>6.13530476888E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.77108764648E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,11 +641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2110944880"/>
-        <c:axId val="-2113360512"/>
+        <c:axId val="-2084330496"/>
+        <c:axId val="-2083579840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110944880"/>
+        <c:axId val="-2084330496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113360512"/>
+        <c:crossAx val="-2083579840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -668,7 +696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113360512"/>
+        <c:axId val="-2083579840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +732,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110944880"/>
+        <c:crossAx val="-2084330496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1003,11 +1031,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2043781296"/>
-        <c:axId val="-2136376752"/>
+        <c:axId val="-2120940560"/>
+        <c:axId val="-2120937264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2043781296"/>
+        <c:axId val="-2120940560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136376752"/>
+        <c:crossAx val="-2120937264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1058,7 +1086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136376752"/>
+        <c:axId val="-2120937264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1137,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043781296"/>
+        <c:crossAx val="-2120940560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2357,16 +2385,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>90564</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>332618</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2688,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="213" zoomScalePageLayoutView="213" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2734,22 +2762,22 @@
         <v>1.39077504476E-5</v>
       </c>
       <c r="C2" s="1">
-        <v>3.7511189778600001E-5</v>
+        <v>6.0002009073900003E-5</v>
       </c>
       <c r="D2" s="1">
-        <v>9.3380610148100003E-5</v>
+        <v>3.65336736043E-4</v>
       </c>
       <c r="E2">
-        <v>4.26371892293E-4</v>
+        <v>3.0777454376199999E-3</v>
       </c>
       <c r="F2">
         <v>5.6993961334199997E-3</v>
       </c>
       <c r="G2">
-        <v>3.9650599161799999E-3</v>
+        <v>4.3182690938300003E-2</v>
       </c>
       <c r="H2">
-        <v>4.2514562606799998E-2</v>
+        <v>0.33893696467099999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2759,23 +2787,23 @@
       <c r="B3">
         <v>1.12295150757E-4</v>
       </c>
-      <c r="C3">
-        <v>1.15553538005E-4</v>
-      </c>
-      <c r="D3">
-        <v>1.4599164327E-4</v>
-      </c>
-      <c r="E3">
-        <v>1.11977259318E-4</v>
-      </c>
-      <c r="F3">
-        <v>1.5656153361000001E-4</v>
-      </c>
-      <c r="G3">
-        <v>1.30414962769E-4</v>
-      </c>
-      <c r="H3">
-        <v>1.2731552124E-4</v>
+      <c r="C3" s="1">
+        <v>6.4690907796200007E-5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.4373016357400001E-5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.1670939127599997E-5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6.9300333658900006E-5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7.6055526733399996E-5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8.0029169718399994E-5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2785,23 +2813,23 @@
       <c r="B4">
         <v>1.0832150777200001E-4</v>
       </c>
-      <c r="C4">
-        <v>1.0530153910299999E-4</v>
-      </c>
-      <c r="D4">
-        <v>1.3931592305499999E-4</v>
+      <c r="C4" s="1">
+        <v>6.1353047688800005E-5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.1273574829100004E-5</v>
       </c>
       <c r="E4">
-        <v>1.0800361633300001E-4</v>
-      </c>
-      <c r="F4">
-        <v>1.3804435730000001E-4</v>
-      </c>
-      <c r="G4">
-        <v>1.0800361633300001E-4</v>
-      </c>
-      <c r="H4">
-        <v>1.42653783162E-4</v>
+        <v>1.16348266602E-4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.1353047688800005E-5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6.7710876464800002E-5</v>
       </c>
     </row>
   </sheetData>

--- a/pm2824_hw3/Tabular Column and Chart HW.xlsx
+++ b/pm2824_hw3/Tabular Column and Chart HW.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Palash/Downloads/ParallelComputing/pm2824_hw3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Palash/Desktop/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,17 +157,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0427388980793771"/>
-          <c:y val="0.121892012072989"/>
-          <c:w val="0.957261101920623"/>
-          <c:h val="0.806995092888821"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -264,10 +254,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>625.0</c:v>
                 </c:pt>
@@ -285,39 +275,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>250000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$H$2</c:f>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.39077504476E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.00020090739E-5</c:v>
+                  <c:v>3.75111897786E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000365336736043</c:v>
+                  <c:v>9.33806101481E-5</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0.00307774543762</c:v>
+                  <c:v>0.000426371892293</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>0.00569939613342</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.0431826909383</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>0.338936964671</c:v>
+                  <c:v>0.00396505991618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,10 +401,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>625.0</c:v>
                 </c:pt>
@@ -438,39 +422,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>250000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$H$3</c:f>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0" formatCode="General">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
                   <c:v>0.000112295150757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.46909077962E-5</c:v>
+                  <c:v>0.000115553538005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.43730163574E-5</c:v>
+                  <c:v>0.00014599164327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.16709391276E-5</c:v>
+                  <c:v>0.000111977259318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.93003336589E-5</c:v>
+                  <c:v>0.00015656153361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.60555267334E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.00291697184E-5</c:v>
+                  <c:v>0.000130414962769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,10 +548,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>625.0</c:v>
                 </c:pt>
@@ -591,39 +569,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>250000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$H$4</c:f>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0" formatCode="General">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
                   <c:v>0.000108321507772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.13530476888E-5</c:v>
+                  <c:v>0.000105301539103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.12735748291E-5</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.000116348266602</c:v>
+                  <c:v>0.000139315923055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000108003616333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.103515625E-5</c:v>
+                  <c:v>0.0001380443573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.13530476888E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.77108764648E-5</c:v>
+                  <c:v>0.000108003616333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,11 +613,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2084330496"/>
-        <c:axId val="-2083579840"/>
+        <c:axId val="-2110944880"/>
+        <c:axId val="-2113360512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2084330496"/>
+        <c:axId val="-2110944880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083579840"/>
+        <c:crossAx val="-2113360512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083579840"/>
+        <c:axId val="-2113360512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +704,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084330496"/>
+        <c:crossAx val="-2110944880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1031,11 +1003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2120940560"/>
-        <c:axId val="-2120937264"/>
+        <c:axId val="-2043781296"/>
+        <c:axId val="-2136376752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120940560"/>
+        <c:axId val="-2043781296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120937264"/>
+        <c:crossAx val="-2136376752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1086,7 +1058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120937264"/>
+        <c:axId val="-2136376752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +1109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120940560"/>
+        <c:crossAx val="-2043781296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2385,16 +2357,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>90564</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>332618</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2716,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="213" zoomScalePageLayoutView="213" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2762,22 +2734,22 @@
         <v>1.39077504476E-5</v>
       </c>
       <c r="C2" s="1">
-        <v>6.0002009073900003E-5</v>
+        <v>3.7511189778600001E-5</v>
       </c>
       <c r="D2" s="1">
-        <v>3.65336736043E-4</v>
+        <v>9.3380610148100003E-5</v>
       </c>
       <c r="E2">
-        <v>3.0777454376199999E-3</v>
+        <v>4.26371892293E-4</v>
       </c>
       <c r="F2">
         <v>5.6993961334199997E-3</v>
       </c>
       <c r="G2">
-        <v>4.3182690938300003E-2</v>
+        <v>3.9650599161799999E-3</v>
       </c>
       <c r="H2">
-        <v>0.33893696467099999</v>
+        <v>4.2514562606799998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2787,23 +2759,23 @@
       <c r="B3">
         <v>1.12295150757E-4</v>
       </c>
-      <c r="C3" s="1">
-        <v>6.4690907796200007E-5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6.4373016357400001E-5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6.1670939127599997E-5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6.9300333658900006E-5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>7.6055526733399996E-5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>8.0029169718399994E-5</v>
+      <c r="C3">
+        <v>1.15553538005E-4</v>
+      </c>
+      <c r="D3">
+        <v>1.4599164327E-4</v>
+      </c>
+      <c r="E3">
+        <v>1.11977259318E-4</v>
+      </c>
+      <c r="F3">
+        <v>1.5656153361000001E-4</v>
+      </c>
+      <c r="G3">
+        <v>1.30414962769E-4</v>
+      </c>
+      <c r="H3">
+        <v>1.2731552124E-4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2813,23 +2785,23 @@
       <c r="B4">
         <v>1.0832150777200001E-4</v>
       </c>
-      <c r="C4" s="1">
-        <v>6.1353047688800005E-5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.1273574829100004E-5</v>
+      <c r="C4">
+        <v>1.0530153910299999E-4</v>
+      </c>
+      <c r="D4">
+        <v>1.3931592305499999E-4</v>
       </c>
       <c r="E4">
-        <v>1.16348266602E-4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6.103515625E-5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6.1353047688800005E-5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>6.7710876464800002E-5</v>
+        <v>1.0800361633300001E-4</v>
+      </c>
+      <c r="F4">
+        <v>1.3804435730000001E-4</v>
+      </c>
+      <c r="G4">
+        <v>1.0800361633300001E-4</v>
+      </c>
+      <c r="H4">
+        <v>1.42653783162E-4</v>
       </c>
     </row>
   </sheetData>
